--- a/biology/Médecine/Pierre_Brouillette/Pierre_Brouillette.xlsx
+++ b/biology/Médecine/Pierre_Brouillette/Pierre_Brouillette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Brouillette (né en 1949) est un orthopédagogue, essayiste et éditeur québécois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Boursier au collège, mentions universitaires, Pierre Brouillette est un éducateur chevronné. Diplômé en philosophie (B.Ph), en orthopédagogie (B. Éd.), en littérature (M.A.) et en sémiologie (Ph.D),  il occupe successivement les fonctions d’éducateur-enseignant et de chef d’équipe dans un centre de rééducation pour adolescents. Il fut invité par la suite à mettre sur pied un service scolaire d’orthopédagogie adapté à une clientèle adolescente hospitalisée en milieu psychiatrique (Pavillon Albert-Prévost de l’Hôpital du Sacré-Cœur de Montréal) pour le compte de la Commission scolaire de Montréal. Phénomène étonnant, les élèves, présentés aux examens du Ministère de l’Éducation du Québec, obtinrent leurs crédits; dépassant même de 15% dans certaines matières les résultats annuels de la moyenne nationale. Les succès obtenus par ses élèves s’expliquent en partie par son charisme,  par sa manière éclectique de présenter le contenu des matières scolaires et par sa grande disponibilité teintée de dévouement et de bienveillance. Il  occupera, jusqu’à sa retraite, ce poste d’enseignant durant 32 ans.
 Dans le cadre de l’implantation du Nouveau programme de français (1979), il fut le seul enseignant, avec le concours de son épouse Francine Beauchamp, à répondre au souhait formulé par le Ministère de l’Éducation du Québec de créer une revue scolaire mensuelle destinée aux élèves réguliers du secondaire, dans le but de les orienter de manière didactique dans le domaine vaste et parfois touffu de la culture contemporaine. En 1980,  le magazine Reflets : la revue scolaire de langue française en Amérique voit le jour et connaît un succès immédiat. Les commentaires élogieux des écrivains américains, australiens, canadiens et européens pour le résumé et l’étude de leurs « best sellers » et des enseignants pour les divers jeux éducatifs et les concours littéraires offerts comme matériel pédagogique de pointe ont confirmé que le média du magazine scolaire était bel et bien désiré et apprécié. Au terme d’une aventure d’éditeur qui durera sept ans, vint l’introduction de l’informatique dans les classes. Pierre Brouillette apportera alors sa collaboration bénévole au site Internet Prof en Ligne (section aide aux devoirs scolaires); site qui a reçu le Prix de l’Acfas 1996. En matière de services rendus à titre gratuit, soulignons que Pierre Brouillette avait déjà reçu un Meritas (1993) «décerné par la Ville de Pierrefonds pour honorer les contributions bénévoles d’un citoyen à sa communauté, à sa ville». Dans le prolongement d’un projet initié par monsieur Jean-Guy Plante, il apporta aussi une contribution remarquée, à titre de Président de la Société Saint-Jean-Baptiste de l’Ouest-de-l’Île, pour l’implantation du Cégep francophone Gérald Godin (1999), au terme de 25 ans d’événements festifs, de conférences, de devis et de rencontres de travail auprès du Ministère de l’Éducation. Il apportera également sa collaboration bénévole (avec les docteurs Amyot, Leblanc, Rodriguez et Desgroseillers) à la conception et à la réalisation du volet psychiatrique du site Internet de l’Hôpital du Sacré-Cœur de Montréal (Mars 2002). Par la suite, il produira un « Power Point » sur l’historique du service de pédopsychiatrie du Pavillon Albert-Prévost à l’occasion d’un colloque international célébrant son 40ème anniversaire de fondation. (2005).
